--- a/Tools/Data/1.ActionTable.xlsx
+++ b/Tools/Data/1.ActionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSoultion\Game\YoLoV8-GameQA\Tools\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5D1537-5120-40CA-9A62-22E8DB106A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B76F69E-E824-4F57-9E35-A3217E3C4C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="1770" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11001|11002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>beforeDelay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,6 +173,10 @@
   </si>
   <si>
     <t>多次检测的间隔时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +509,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -533,16 +533,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -616,10 +616,10 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
@@ -657,7 +657,7 @@
         <v>0.3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I5">
         <v>0.8</v>
